--- a/biology/Médecine/Hôpital_Daler/Hôpital_Daler.xlsx
+++ b/biology/Médecine/Hôpital_Daler/Hôpital_Daler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Daler</t>
+          <t>Hôpital_Daler</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôpital Daler est une clinique privée reconnue d'utilité publique située à Fribourg, en Suisse. Elle est ouverte à toutes et tous qu'elle que soit la couverture d'assurance.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Daler</t>
+          <t>Hôpital_Daler</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le banquier Jules Daler décède en 1889 et lègue 864 200 francs suisses à la paroisse réformée de Fribourg, pour la fondation d'un hôpital portant son nom, qui pourrait venir en aide aux patients protestants du canton de Fribourg ainsi qu'aux malades non-bourgeois de la ville de Fribourg[1]. L'inauguration de l'Hôpital Daler a lieu le 14 octobre 1917[1].
-L'établissement franchi le cap des 1 000 naissances en 2011, 1 320 en 2013 et entrevoit de dépasser les 1 500 nouveau-nés en 2014[2]. Une collaboration est trouvée avec l'Hôpital Fribourgeois voisin en 2014 afin de renforcer l'offre cantonale dans le domaine de l'obstétrique[2]. En 2016, l'Hôpital Daler recense 5 412 hospitalisations et 1 556 naissances, ce qui représente une augmentation par rapport aux années précédentes[3].
-L'établissement célèbre ses 100 ans en 2017[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le banquier Jules Daler décède en 1889 et lègue 864 200 francs suisses à la paroisse réformée de Fribourg, pour la fondation d'un hôpital portant son nom, qui pourrait venir en aide aux patients protestants du canton de Fribourg ainsi qu'aux malades non-bourgeois de la ville de Fribourg. L'inauguration de l'Hôpital Daler a lieu le 14 octobre 1917.
+L'établissement franchi le cap des 1 000 naissances en 2011, 1 320 en 2013 et entrevoit de dépasser les 1 500 nouveau-nés en 2014. Une collaboration est trouvée avec l'Hôpital Fribourgeois voisin en 2014 afin de renforcer l'offre cantonale dans le domaine de l'obstétrique. En 2016, l'Hôpital Daler recense 5 412 hospitalisations et 1 556 naissances, ce qui représente une augmentation par rapport aux années précédentes.
+L'établissement célèbre ses 100 ans en 2017.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Daler</t>
+          <t>Hôpital_Daler</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Spécialités et services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Près de 30 spécialités y sont proposées, parmi lesquelles figurent la médecine générale, la chirurgie, la cardiologie, la gynécologie, l'oncologie, la médecine sportive...
-Aussi, l'Hôpital Daler propose des prestations comme la diététique, la physiothérapie, la stomathérapie, ainsi qu'un fitness[4],[5].
+Aussi, l'Hôpital Daler propose des prestations comme la diététique, la physiothérapie, la stomathérapie, ainsi qu'un fitness,.
 </t>
         </is>
       </c>
